--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200321.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200321.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\3.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hebei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26433368-3A53-464B-88FC-A14B785F1423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2766A-0EF7-42A6-B3C5-E6049B78644D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9328" uniqueCount="3297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9336" uniqueCount="3297">
   <si>
     <t>序号</t>
   </si>
@@ -10717,10 +10717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11836,7 +11836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C15" s="17">
         <v>43911</v>
@@ -11850,7 +11850,9 @@
       <c r="F15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="20" t="s">
+        <v>3295</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16">
         <v>1</v>
@@ -11859,15 +11861,11 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="N15" s="16"/>
-      <c r="O15" s="16">
-        <v>310</v>
-      </c>
-      <c r="P15" s="16">
-        <v>6</v>
-      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16" t="s">
@@ -11906,34 +11904,66 @@
       <c r="AN15" s="16"/>
     </row>
     <row r="16" spans="1:40" s="11" customFormat="1" ht="16.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43911</v>
+      </c>
+      <c r="D16" s="17">
+        <v>43912</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="16">
+        <v>319</v>
+      </c>
       <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="16">
+        <v>310</v>
+      </c>
+      <c r="P16" s="16">
+        <v>6</v>
+      </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="16"/>
+      <c r="S16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="17">
+        <v>43912</v>
+      </c>
       <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="16" t="s">
+        <v>3296</v>
+      </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
+      <c r="Z16" s="19">
+        <v>43912.4</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
@@ -11966,7 +11996,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -12034,44 +12064,86 @@
     <row r="19" spans="1:40" s="11" customFormat="1" ht="16.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+    </row>
+    <row r="20" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12079,7 +12151,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -12088,14 +12160,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13 H15:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>INDIRECT($F15)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>INDIRECT($F16)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
